--- a/tornado plot.xlsx
+++ b/tornado plot.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1b6ba592580725c/Desktop/GitHub/thermal-matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D10CBAF-EF6B-4BCA-97DD-A36551D6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{8D10CBAF-EF6B-4BCA-97DD-A36551D6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90C1FDE0-4A8F-4363-BBA0-541E98665623}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -129,6 +131,9 @@
   </si>
   <si>
     <t>Baseline</t>
+  </si>
+  <si>
+    <t>Baseline Eff</t>
   </si>
 </sst>
 </file>
@@ -283,7 +288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6F2A0F0-00E2-4FD3-9E24-11F584262B05}" type="CELLRANGE">
+                    <a:fld id="{8877BBD4-0DB7-4997-B637-891FAF908584}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -292,7 +297,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{539311D4-D006-4822-A06D-355630154E91}" type="VALUE">
+                    <a:fld id="{46BDAE4A-FBA5-4490-ABEA-15BD33B5847F}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -325,7 +330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E768599-2892-4ADE-AC15-97E6896AFD6A}" type="CELLRANGE">
+                    <a:fld id="{8295BA16-B90D-4440-AF6F-36A2215EADE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -334,7 +339,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{DBF4CE34-05EB-4A25-9CC4-6FF353E6666F}" type="VALUE">
+                    <a:fld id="{0D820F65-EACB-4235-B1CF-EC2C3D4ADBBD}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -367,7 +372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9A9D7D8-3A4D-459A-8A58-0C2A2D90C3AB}" type="CELLRANGE">
+                    <a:fld id="{D6F90F63-D4C8-4A56-B1E8-DB6C8B7B0273}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -376,7 +381,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{06F636A0-8C87-401D-84F1-E606A4BDDAD3}" type="VALUE">
+                    <a:fld id="{7935F992-B17A-4816-9565-C36E861299D0}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -409,7 +414,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2C87DEC-E31A-4699-A7FD-C5AD1CB2A33D}" type="CELLRANGE">
+                    <a:fld id="{1339146C-2DBB-4D94-AF72-F5581A7D9BE1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -418,7 +423,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{47FED3C2-AA42-42EF-8756-18D27EBF8F10}" type="VALUE">
+                    <a:fld id="{06DE3B49-E129-42F4-900C-72F93AC79874}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -448,8 +453,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11463700238337042"/>
-                  <c:y val="0.13922354134317971"/>
+                  <c:x val="-2.2477239750498319E-2"/>
+                  <c:y val="4.6407847114393233E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -457,7 +462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA47748C-135A-43DD-9EDE-914ED45DCDD8}" type="CELLRANGE">
+                    <a:fld id="{6ABCE4C0-B321-4330-84AA-A56ABC74FBB2}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -466,7 +471,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7B3B85F6-01D9-4E21-8341-2345E6221567}" type="VALUE">
+                    <a:fld id="{8EFA5A55-4FD2-4325-A9B8-651B84BF8C31}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -498,7 +503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F3F306A-C447-485D-AE6F-5C12DAD23133}" type="CELLRANGE">
+                    <a:fld id="{D75C7304-ACD5-4D73-9F55-015F19CC430B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -507,7 +512,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6F401592-2DA2-497B-805C-4F3193749ACE}" type="VALUE">
+                    <a:fld id="{3CA32DA1-6498-4156-857B-DF2270DEECF3}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -625,22 +630,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.0374761102731318E-3</c:v>
+                  <c:v>9.1020000040759035E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98196342238281475</c:v>
+                  <c:v>0.98091082437081789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2051602062500217</c:v>
+                  <c:v>1.203882125960154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1359831247382566</c:v>
+                  <c:v>1.1347784071962896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.18183253323504836</c:v>
+                  <c:v>-0.18156128420347345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14263169427089106</c:v>
+                  <c:v>0.16006039833198066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,7 +706,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.23377047926878342"/>
+                  <c:x val="6.0690635828574403E-2"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
@@ -710,7 +715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C4C5D43-D699-40D2-9C80-3F3C280B63F4}" type="CELLRANGE">
+                    <a:fld id="{647F843C-0038-4E0D-B61A-856247C0FF35}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -719,7 +724,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{B48D8D1D-E314-4F45-B554-3DE1F114C876}" type="VALUE">
+                    <a:fld id="{F8CA9CD2-367F-4467-B601-F9E62ED85353}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -757,7 +762,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BB12977-24F5-4434-8FDA-F2D02CD8A91D}" type="CELLRANGE">
+                    <a:fld id="{F46A17E0-8119-4518-9795-9F2B417044BB}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -766,7 +771,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E3A73BAF-4E95-458E-95E9-F801A8203AEE}" type="VALUE">
+                    <a:fld id="{C3E4E763-89A2-4BA7-BB5B-DA33A7580EB3}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -798,7 +803,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C8E89B4-8064-4378-9647-569C81DF12F0}" type="CELLRANGE">
+                    <a:fld id="{A426F525-D783-43F8-82FC-DF00FF458C59}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -807,7 +812,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1E214549-5ECC-46E2-AB69-14FC7691DA77}" type="VALUE">
+                    <a:fld id="{AF9352E0-3326-4B03-9DEF-9490AE04B3B4}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -840,7 +845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5354FE8A-D66E-4A70-9BF5-A6D1B7DD7E62}" type="CELLRANGE">
+                    <a:fld id="{753F11F5-62F3-408A-9C0F-4B03AB58F6B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -849,7 +854,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E5AFD624-C16A-4405-9395-D769236E10D6}" type="VALUE">
+                    <a:fld id="{947EEA76-F8A8-487A-B06D-A35DC66BED7C}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -888,8 +893,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FAAE305-34FB-4974-AADA-AC382A46EBB9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{7B0431D1-7E74-4251-86DC-C51E81A3AB05}" type="CELLRANGE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -897,7 +902,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{DD8E620D-3C7E-4717-B330-AF5B4FAE5C9B}" type="VALUE">
+                    <a:fld id="{95D93205-8859-468C-83B2-798A8541F19D}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -935,7 +940,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D96D28B-F32B-47B6-8D20-49F02ADB8FDA}" type="CELLRANGE">
+                    <a:fld id="{9A9110A4-6E47-43CB-B841-4F2335732E59}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -944,7 +949,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E00B0149-DA04-4389-BEC3-228DDDE5B7CF}" type="VALUE">
+                    <a:fld id="{A95ABF37-0C36-421B-A4BC-688A0B568F98}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[VALUE]</a:t>
@@ -1061,22 +1066,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0930033632894125</c:v>
+                  <c:v>1.1351428710341587</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1425145431047903</c:v>
+                  <c:v>1.1413030238887918</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9821338279420786</c:v>
+                  <c:v>0.98109226858673682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1717229529562139</c:v>
+                  <c:v>1.1704803330924047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6975345733701053</c:v>
+                  <c:v>3.6935971235230234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.823860313566771</c:v>
+                  <c:v>2.8656047107986251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,7 +1176,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="478497616"/>
-        <c:crossesAt val="1.1363000000000001"/>
+        <c:crossesAt val="1.1351"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1896,15 +1901,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>248065</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>99184</xdr:rowOff>
+      <xdr:colOff>753304</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>829090</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>37272</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>489503</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>20706</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1930,6 +1935,25 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="X2">
+            <v>9.1020000040759035E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2231,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,6 +3178,14 @@
         <v>2.823860313566771</v>
       </c>
     </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>1.1351</v>
+      </c>
+    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>29</v>
@@ -3182,10 +3214,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>9.0374761102731318E-3</v>
+        <v>9.1020000040759035E-3</v>
       </c>
       <c r="D20">
-        <v>1.0930033632894125</v>
+        <v>1.1351428710341587</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,10 +3237,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>0.98196342238281475</v>
+        <v>0.98091082437081789</v>
       </c>
       <c r="D22">
-        <v>1.1425145431047903</v>
+        <v>1.1413030238887918</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3228,10 +3260,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>1.2051602062500217</v>
+        <v>1.203882125960154</v>
       </c>
       <c r="D24">
-        <v>0.9821338279420786</v>
+        <v>0.98109226858673682</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3251,10 +3283,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>1.1359831247382566</v>
+        <v>1.1347784071962896</v>
       </c>
       <c r="D26">
-        <v>1.1717229529562139</v>
+        <v>1.1704803330924047</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,10 +3306,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>-0.18183253323504836</v>
+        <v>-0.18156128420347345</v>
       </c>
       <c r="D28">
-        <v>3.6975345733701053</v>
+        <v>3.6935971235230234</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3297,10 +3329,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>0.14263169427089106</v>
+        <v>0.16006039833198066</v>
       </c>
       <c r="D30">
-        <v>2.823860313566771</v>
+        <v>2.8656047107986251</v>
       </c>
     </row>
   </sheetData>

--- a/tornado plot.xlsx
+++ b/tornado plot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1b6ba592580725c/Desktop/GitHub/thermal-matlab/Optimization Example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1b6ba592580725c/Desktop/GitHub/thermal-matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{8D10CBAF-EF6B-4BCA-97DD-A36551D6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4863BA86-24F9-41AE-A915-C59034526CF9}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{8D10CBAF-EF6B-4BCA-97DD-A36551D6101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E99E2D17-2CA5-4380-84C6-B591C2A7990A}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1950" windowWidth="25980" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1607,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
